--- a/data/pca/factorExposure/factorExposure_2011-03-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.004703576296619368</v>
+        <v>0.01153058664903511</v>
       </c>
       <c r="C2">
-        <v>0.008458836632521049</v>
+        <v>0.00113504454853156</v>
       </c>
       <c r="D2">
-        <v>-0.03783909138035117</v>
+        <v>-0.003582348687586019</v>
       </c>
       <c r="E2">
-        <v>-0.00548079199456905</v>
+        <v>-0.01889173502538898</v>
       </c>
       <c r="F2">
-        <v>-0.006318318761883968</v>
+        <v>-0.02134638600277612</v>
       </c>
       <c r="G2">
-        <v>0.02029442500515473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.009449372357737448</v>
+      </c>
+      <c r="H2">
+        <v>-0.008075500287275633</v>
+      </c>
+      <c r="I2">
+        <v>0.03555919890581673</v>
+      </c>
+      <c r="J2">
+        <v>0.05790480822961466</v>
+      </c>
+      <c r="K2">
+        <v>-0.002096411729925273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.1041509769858402</v>
+        <v>0.1161979378115696</v>
       </c>
       <c r="C4">
-        <v>0.02755541185241372</v>
+        <v>-0.05919196959259234</v>
       </c>
       <c r="D4">
-        <v>-0.04601595129288424</v>
+        <v>0.002295600055693149</v>
       </c>
       <c r="E4">
-        <v>0.05730015329305847</v>
+        <v>-0.01206107607818012</v>
       </c>
       <c r="F4">
-        <v>-0.03863553492231465</v>
+        <v>-0.01872319626480616</v>
       </c>
       <c r="G4">
-        <v>0.02939737767390749</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.07058696012909288</v>
+      </c>
+      <c r="H4">
+        <v>-0.1397249183144995</v>
+      </c>
+      <c r="I4">
+        <v>0.01730207082085574</v>
+      </c>
+      <c r="J4">
+        <v>-0.03777812621371147</v>
+      </c>
+      <c r="K4">
+        <v>0.0226300828776925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1275818029300407</v>
+        <v>0.1233443976188999</v>
       </c>
       <c r="C6">
-        <v>0.02736254728575457</v>
+        <v>-0.01187303543239318</v>
       </c>
       <c r="D6">
-        <v>-0.02598732299091821</v>
+        <v>-0.005718782777324203</v>
       </c>
       <c r="E6">
-        <v>-0.007627829468524463</v>
+        <v>0.02491298522409567</v>
       </c>
       <c r="F6">
-        <v>0.1480764585907917</v>
+        <v>-0.008862555834336719</v>
       </c>
       <c r="G6">
-        <v>-0.1278887277779177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.05860443458469524</v>
+      </c>
+      <c r="H6">
+        <v>-0.03217579175277551</v>
+      </c>
+      <c r="I6">
+        <v>-0.2040095101772234</v>
+      </c>
+      <c r="J6">
+        <v>-0.3601533986177857</v>
+      </c>
+      <c r="K6">
+        <v>-0.1844269721181058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.09108267898577177</v>
+        <v>0.07748595846038543</v>
       </c>
       <c r="C7">
-        <v>0.03811813393570478</v>
+        <v>-0.05807017351870859</v>
       </c>
       <c r="D7">
-        <v>-0.03841271290307554</v>
+        <v>-0.03127314864908103</v>
       </c>
       <c r="E7">
-        <v>0.02429073470863758</v>
+        <v>-0.02153780943254332</v>
       </c>
       <c r="F7">
-        <v>0.02193205573374415</v>
+        <v>-0.03728878281827681</v>
       </c>
       <c r="G7">
-        <v>0.02417045160936058</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02426191676055145</v>
+      </c>
+      <c r="H7">
+        <v>-0.04011293074161663</v>
+      </c>
+      <c r="I7">
+        <v>-0.01144601515837046</v>
+      </c>
+      <c r="J7">
+        <v>0.01250122889197608</v>
+      </c>
+      <c r="K7">
+        <v>0.0992144481026101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.0428944127220697</v>
+        <v>0.05209706541450057</v>
       </c>
       <c r="C8">
-        <v>-0.02486248009095233</v>
+        <v>-0.01190238271320643</v>
       </c>
       <c r="D8">
-        <v>-0.08297749373138859</v>
+        <v>-0.01373356797964517</v>
       </c>
       <c r="E8">
-        <v>0.08782424032905359</v>
+        <v>-0.008809728846841657</v>
       </c>
       <c r="F8">
-        <v>-0.03284837207324753</v>
+        <v>-0.009262594583170759</v>
       </c>
       <c r="G8">
-        <v>0.122495700199469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.1000675283168558</v>
+      </c>
+      <c r="H8">
+        <v>-0.10705998506663</v>
+      </c>
+      <c r="I8">
+        <v>0.00684351584150545</v>
+      </c>
+      <c r="J8">
+        <v>-0.03400859573540947</v>
+      </c>
+      <c r="K8">
+        <v>0.02068302055486396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.0940434593670942</v>
+        <v>0.08749773982568822</v>
       </c>
       <c r="C9">
-        <v>0.03779258517813473</v>
+        <v>-0.05376662726050979</v>
       </c>
       <c r="D9">
-        <v>-0.03649375607309717</v>
+        <v>-0.00725669371578703</v>
       </c>
       <c r="E9">
-        <v>0.04599147138135462</v>
+        <v>-0.01730160845993262</v>
       </c>
       <c r="F9">
-        <v>-0.0310646238913426</v>
+        <v>-0.009480791913136012</v>
       </c>
       <c r="G9">
-        <v>0.06786912960649243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.06551331532427676</v>
+      </c>
+      <c r="H9">
+        <v>-0.1165513382483416</v>
+      </c>
+      <c r="I9">
+        <v>-0.004640106021790927</v>
+      </c>
+      <c r="J9">
+        <v>-0.009355551045927083</v>
+      </c>
+      <c r="K9">
+        <v>-0.001116967303452701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.03837181589620935</v>
+        <v>0.08947919562339005</v>
       </c>
       <c r="C10">
-        <v>-0.1584187642551154</v>
+        <v>0.1764007256915884</v>
       </c>
       <c r="D10">
-        <v>-0.09356592139942381</v>
+        <v>0.02872817287627749</v>
       </c>
       <c r="E10">
-        <v>0.02361997924914564</v>
+        <v>-0.03474637188690217</v>
       </c>
       <c r="F10">
-        <v>0.02698320435303377</v>
+        <v>-0.05259689693829008</v>
       </c>
       <c r="G10">
-        <v>0.002685459574034507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.002888305766723795</v>
+      </c>
+      <c r="H10">
+        <v>0.004033232316278951</v>
+      </c>
+      <c r="I10">
+        <v>-0.008877231364914225</v>
+      </c>
+      <c r="J10">
+        <v>-0.04477233995547102</v>
+      </c>
+      <c r="K10">
+        <v>0.04765558071355885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.077062000861228</v>
+        <v>0.07801499391344917</v>
       </c>
       <c r="C11">
-        <v>0.0607071356075165</v>
+        <v>-0.06124867305914489</v>
       </c>
       <c r="D11">
-        <v>-0.01106639952888611</v>
+        <v>-0.02051941687988413</v>
       </c>
       <c r="E11">
-        <v>-0.008268618198195637</v>
+        <v>-0.01981221449969961</v>
       </c>
       <c r="F11">
-        <v>-0.02516453529221627</v>
+        <v>0.02046773102528667</v>
       </c>
       <c r="G11">
-        <v>0.1584051454338048</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.07879711574620588</v>
+      </c>
+      <c r="H11">
+        <v>-0.1098337997553333</v>
+      </c>
+      <c r="I11">
+        <v>-0.00796519385009003</v>
+      </c>
+      <c r="J11">
+        <v>0.1047938281283308</v>
+      </c>
+      <c r="K11">
+        <v>-0.007010466925283976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07325743232062343</v>
+        <v>0.07846804238782126</v>
       </c>
       <c r="C12">
-        <v>0.03732113803289235</v>
+        <v>-0.06701084033167067</v>
       </c>
       <c r="D12">
-        <v>-0.005237080483326054</v>
+        <v>-0.03034057453864394</v>
       </c>
       <c r="E12">
-        <v>0.03115568228175721</v>
+        <v>-0.04379809673886005</v>
       </c>
       <c r="F12">
-        <v>-0.01294311724298375</v>
+        <v>0.02848869143722876</v>
       </c>
       <c r="G12">
-        <v>0.1469756037637339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.09609632433697415</v>
+      </c>
+      <c r="H12">
+        <v>-0.09510075164840688</v>
+      </c>
+      <c r="I12">
+        <v>-0.02487573934456523</v>
+      </c>
+      <c r="J12">
+        <v>0.09963501495470249</v>
+      </c>
+      <c r="K12">
+        <v>-0.01016357492267678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.06324527714480724</v>
+        <v>0.03978864261080139</v>
       </c>
       <c r="C13">
-        <v>0.002372180036906857</v>
+        <v>-0.02486620577377887</v>
       </c>
       <c r="D13">
-        <v>-0.01080931394701724</v>
+        <v>-0.01254686817285997</v>
       </c>
       <c r="E13">
-        <v>0.02436592627863614</v>
+        <v>0.004819860002512814</v>
       </c>
       <c r="F13">
-        <v>-0.0458292895348813</v>
+        <v>-0.02194993149865288</v>
       </c>
       <c r="G13">
-        <v>0.05310932059694507</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.0466679222367272</v>
+      </c>
+      <c r="H13">
+        <v>-0.04667386103329626</v>
+      </c>
+      <c r="I13">
+        <v>-0.02032905279659915</v>
+      </c>
+      <c r="J13">
+        <v>-0.0507724851981328</v>
+      </c>
+      <c r="K13">
+        <v>0.02365353414701689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.05294707896878573</v>
+        <v>0.04356391929853835</v>
       </c>
       <c r="C14">
-        <v>0.006372840408833666</v>
+        <v>-0.0203724458914864</v>
       </c>
       <c r="D14">
-        <v>-0.03284518345614199</v>
+        <v>0.0092085291169969</v>
       </c>
       <c r="E14">
-        <v>0.02535806247975409</v>
+        <v>-0.01474822357286335</v>
       </c>
       <c r="F14">
-        <v>-0.0247573926368705</v>
+        <v>0.006543486720259332</v>
       </c>
       <c r="G14">
-        <v>0.06252223661555432</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.05141933633848338</v>
+      </c>
+      <c r="H14">
+        <v>-0.0527971892582118</v>
+      </c>
+      <c r="I14">
+        <v>0.02784399960372392</v>
+      </c>
+      <c r="J14">
+        <v>-0.05419840733724472</v>
+      </c>
+      <c r="K14">
+        <v>0.02508038795602599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.0388385151330061</v>
+        <v>0.02355850781283753</v>
       </c>
       <c r="C15">
-        <v>-0.01251109456471864</v>
+        <v>-0.004413023213902694</v>
       </c>
       <c r="D15">
-        <v>-0.01134103498917514</v>
+        <v>-0.007127296827184562</v>
       </c>
       <c r="E15">
-        <v>0.00601154158072468</v>
+        <v>0.01762503148380868</v>
       </c>
       <c r="F15">
-        <v>-0.02245341347891413</v>
+        <v>-0.03286349308537902</v>
       </c>
       <c r="G15">
-        <v>0.01742959478953795</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.01146471125365498</v>
+      </c>
+      <c r="H15">
+        <v>-0.009208239837212077</v>
+      </c>
+      <c r="I15">
+        <v>0.0007929982119198925</v>
+      </c>
+      <c r="J15">
+        <v>-0.05748366091431342</v>
+      </c>
+      <c r="K15">
+        <v>0.03284653819041298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.07980035782804225</v>
+        <v>0.08379607551232156</v>
       </c>
       <c r="C16">
-        <v>0.06979582063072572</v>
+        <v>-0.06908835038898799</v>
       </c>
       <c r="D16">
-        <v>-0.01872290762840324</v>
+        <v>-0.02970726795697106</v>
       </c>
       <c r="E16">
-        <v>0.03410166712899006</v>
+        <v>-0.02523496793719157</v>
       </c>
       <c r="F16">
-        <v>-0.04864907447196962</v>
+        <v>0.01790689631771472</v>
       </c>
       <c r="G16">
-        <v>0.1169665187401221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.109710791491155</v>
+      </c>
+      <c r="H16">
+        <v>-0.09092774399838165</v>
+      </c>
+      <c r="I16">
+        <v>-0.01314229187551716</v>
+      </c>
+      <c r="J16">
+        <v>0.1116464452245693</v>
+      </c>
+      <c r="K16">
+        <v>0.001098488373452391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.05151975957503212</v>
+        <v>0.04937815236250971</v>
       </c>
       <c r="C20">
-        <v>0.02258927608320908</v>
+        <v>-0.03243305864750277</v>
       </c>
       <c r="D20">
-        <v>-0.01656808894563358</v>
+        <v>0.009016088638436875</v>
       </c>
       <c r="E20">
-        <v>0.02258049008008953</v>
+        <v>0.001471943506267539</v>
       </c>
       <c r="F20">
-        <v>-0.01859662350851067</v>
+        <v>-0.0180297229634947</v>
       </c>
       <c r="G20">
-        <v>0.1084712809584101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04259018898795188</v>
+      </c>
+      <c r="H20">
+        <v>-0.05125411898410041</v>
+      </c>
+      <c r="I20">
+        <v>0.01573720635276564</v>
+      </c>
+      <c r="J20">
+        <v>-0.04048027239310371</v>
+      </c>
+      <c r="K20">
+        <v>0.05882033877407951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.02846658487352728</v>
+        <v>0.02861623324894869</v>
       </c>
       <c r="C21">
-        <v>0.03585655447630284</v>
+        <v>-0.01817053912225379</v>
       </c>
       <c r="D21">
-        <v>0.006301720537982943</v>
+        <v>0.02933591854077721</v>
       </c>
       <c r="E21">
-        <v>0.01527654391664614</v>
+        <v>0.01183386193761397</v>
       </c>
       <c r="F21">
-        <v>0.09886950119044555</v>
+        <v>0.008174274753776016</v>
       </c>
       <c r="G21">
-        <v>-0.06140907796325601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03836350802529202</v>
+      </c>
+      <c r="H21">
+        <v>-0.06927558717836019</v>
+      </c>
+      <c r="I21">
+        <v>-0.06283648659105073</v>
+      </c>
+      <c r="J21">
+        <v>-0.04106440344673046</v>
+      </c>
+      <c r="K21">
+        <v>0.1143137725197696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.04426829767246054</v>
+        <v>0.03463701950327906</v>
       </c>
       <c r="C22">
-        <v>0.002606615610477619</v>
+        <v>-0.002155850435805281</v>
       </c>
       <c r="D22">
-        <v>0.00927649806209252</v>
+        <v>-0.0855925512921652</v>
       </c>
       <c r="E22">
-        <v>0.5646832279722033</v>
+        <v>0.3594447628355404</v>
       </c>
       <c r="F22">
-        <v>-0.05814141778722804</v>
+        <v>-0.5334130383424935</v>
       </c>
       <c r="G22">
-        <v>-0.3151272545005098</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.126809553433823</v>
+      </c>
+      <c r="H22">
+        <v>0.144665162153589</v>
+      </c>
+      <c r="I22">
+        <v>-0.01358274294358098</v>
+      </c>
+      <c r="J22">
+        <v>0.08180880609564359</v>
+      </c>
+      <c r="K22">
+        <v>-0.03349102943161415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.04437403266973104</v>
+        <v>0.03484326703105536</v>
       </c>
       <c r="C23">
-        <v>0.003157070933209496</v>
+        <v>-0.002653560028450357</v>
       </c>
       <c r="D23">
-        <v>0.007700206957854965</v>
+        <v>-0.08680523045419859</v>
       </c>
       <c r="E23">
-        <v>0.5638393699161051</v>
+        <v>0.3607733809968885</v>
       </c>
       <c r="F23">
-        <v>-0.05886517109066174</v>
+        <v>-0.5351515100969884</v>
       </c>
       <c r="G23">
-        <v>-0.316045860773038</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.1282206568356653</v>
+      </c>
+      <c r="H23">
+        <v>0.1411222871208608</v>
+      </c>
+      <c r="I23">
+        <v>-0.0126658371079039</v>
+      </c>
+      <c r="J23">
+        <v>0.07916603080745958</v>
+      </c>
+      <c r="K23">
+        <v>-0.03660142131083639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.0853849525381891</v>
+        <v>0.08611640691477554</v>
       </c>
       <c r="C24">
-        <v>0.04704778066297974</v>
+        <v>-0.06118764263686511</v>
       </c>
       <c r="D24">
-        <v>-0.02454227999393315</v>
+        <v>-0.01417612496405861</v>
       </c>
       <c r="E24">
-        <v>0.03135593339854652</v>
+        <v>-0.02296208458160046</v>
       </c>
       <c r="F24">
-        <v>-0.01705456415979219</v>
+        <v>0.01267861317285816</v>
       </c>
       <c r="G24">
-        <v>0.1215592909904352</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.09597367667870466</v>
+      </c>
+      <c r="H24">
+        <v>-0.08954817325407598</v>
+      </c>
+      <c r="I24">
+        <v>-0.01424402488133604</v>
+      </c>
+      <c r="J24">
+        <v>0.1132497955534776</v>
+      </c>
+      <c r="K24">
+        <v>-0.02031870574366455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.07624537913286157</v>
+        <v>0.08704226525836896</v>
       </c>
       <c r="C25">
-        <v>0.01978424828691859</v>
+        <v>-0.04701199498595272</v>
       </c>
       <c r="D25">
-        <v>-0.02619304881497661</v>
+        <v>-0.02258718001020289</v>
       </c>
       <c r="E25">
-        <v>0.02398832915797185</v>
+        <v>-0.05125089335728884</v>
       </c>
       <c r="F25">
-        <v>-0.009199027100417725</v>
+        <v>0.02684618263704066</v>
       </c>
       <c r="G25">
-        <v>0.1155398545035111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.1012964802603101</v>
+      </c>
+      <c r="H25">
+        <v>-0.08192541146215875</v>
+      </c>
+      <c r="I25">
+        <v>-0.00787841762426604</v>
+      </c>
+      <c r="J25">
+        <v>0.09079278282959427</v>
+      </c>
+      <c r="K25">
+        <v>-0.01615782214369807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.0520111822367636</v>
+        <v>0.04463601606644261</v>
       </c>
       <c r="C26">
-        <v>0.02385333190422541</v>
+        <v>-0.006915664002470455</v>
       </c>
       <c r="D26">
-        <v>-0.0313530742020697</v>
+        <v>0.0180948090215838</v>
       </c>
       <c r="E26">
-        <v>0.01375596140488267</v>
+        <v>0.01460876135988</v>
       </c>
       <c r="F26">
-        <v>-0.03578335896657919</v>
+        <v>-0.005276350989816185</v>
       </c>
       <c r="G26">
-        <v>0.05016491171925871</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.04722878508089204</v>
+      </c>
+      <c r="H26">
+        <v>-0.03165558752971559</v>
+      </c>
+      <c r="I26">
+        <v>0.01340959359437567</v>
+      </c>
+      <c r="J26">
+        <v>-0.03118927304078746</v>
+      </c>
+      <c r="K26">
+        <v>0.01062273611965392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.06266094589601656</v>
+        <v>0.1053677937791698</v>
       </c>
       <c r="C28">
-        <v>-0.2964797509392516</v>
+        <v>0.3173238252234856</v>
       </c>
       <c r="D28">
-        <v>-0.05957154648054945</v>
+        <v>-0.01299694843444089</v>
       </c>
       <c r="E28">
-        <v>-0.03242020994775988</v>
+        <v>-0.02071393037640741</v>
       </c>
       <c r="F28">
-        <v>0.05204644352398045</v>
+        <v>0.002995449570794636</v>
       </c>
       <c r="G28">
-        <v>-0.01402265979758033</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.0261570303279099</v>
+      </c>
+      <c r="H28">
+        <v>-0.008824641761611044</v>
+      </c>
+      <c r="I28">
+        <v>-0.01163428975171507</v>
+      </c>
+      <c r="J28">
+        <v>-0.001803148012454809</v>
+      </c>
+      <c r="K28">
+        <v>0.02410625249678653</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05781808904751515</v>
+        <v>0.04030844894551986</v>
       </c>
       <c r="C29">
-        <v>0.00865340075147729</v>
+        <v>-0.01813933681268776</v>
       </c>
       <c r="D29">
-        <v>-0.0265166436810922</v>
+        <v>-0.003369164240815993</v>
       </c>
       <c r="E29">
-        <v>0.04507681690056752</v>
+        <v>-0.02937084268927081</v>
       </c>
       <c r="F29">
-        <v>-0.03881743415411446</v>
+        <v>-0.005505176272010212</v>
       </c>
       <c r="G29">
-        <v>0.03940488280743579</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.09522885912829619</v>
+      </c>
+      <c r="H29">
+        <v>-0.04059088595916274</v>
+      </c>
+      <c r="I29">
+        <v>0.01131336949767148</v>
+      </c>
+      <c r="J29">
+        <v>-0.05672113911351651</v>
+      </c>
+      <c r="K29">
+        <v>0.04409465549520676</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.114215738405679</v>
+        <v>0.1081572253709142</v>
       </c>
       <c r="C30">
-        <v>-0.0218243747016205</v>
+        <v>-0.05455375427569908</v>
       </c>
       <c r="D30">
-        <v>-0.07676782633683264</v>
+        <v>-0.04314507639734352</v>
       </c>
       <c r="E30">
-        <v>0.201641501413824</v>
+        <v>0.004351297228168341</v>
       </c>
       <c r="F30">
-        <v>0.06952041631937829</v>
+        <v>0.01792989835377378</v>
       </c>
       <c r="G30">
-        <v>0.1598738264753262</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.1912107202278119</v>
+      </c>
+      <c r="H30">
+        <v>-0.09885000996884122</v>
+      </c>
+      <c r="I30">
+        <v>-0.1878565453206332</v>
+      </c>
+      <c r="J30">
+        <v>0.06000532544688867</v>
+      </c>
+      <c r="K30">
+        <v>-0.0004643780901317178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.05742431189469036</v>
+        <v>0.0385775718979469</v>
       </c>
       <c r="C31">
-        <v>0.01804301360954516</v>
+        <v>-0.03278100026281693</v>
       </c>
       <c r="D31">
-        <v>0.008684005937840954</v>
+        <v>-0.00389009069952422</v>
       </c>
       <c r="E31">
-        <v>0.007034303687539321</v>
+        <v>0.002392092272588011</v>
       </c>
       <c r="F31">
-        <v>-0.03444178398957357</v>
+        <v>-0.002514243998706355</v>
       </c>
       <c r="G31">
-        <v>0.001111696210288906</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01996846423148877</v>
+      </c>
+      <c r="H31">
+        <v>-0.02224048470108958</v>
+      </c>
+      <c r="I31">
+        <v>0.04053089681627078</v>
+      </c>
+      <c r="J31">
+        <v>-0.02556857468925558</v>
+      </c>
+      <c r="K31">
+        <v>-0.007531580624621149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03663411775841741</v>
+        <v>0.05332105531767439</v>
       </c>
       <c r="C32">
-        <v>-0.01680458131617616</v>
+        <v>-0.0001906947599347782</v>
       </c>
       <c r="D32">
-        <v>-0.005951762215913338</v>
+        <v>0.02100732782578956</v>
       </c>
       <c r="E32">
-        <v>0.08159452571166696</v>
+        <v>0.007327681367771443</v>
       </c>
       <c r="F32">
-        <v>-0.1079217707936265</v>
+        <v>0.05816946831525353</v>
       </c>
       <c r="G32">
-        <v>0.04993687854337477</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02139867964160139</v>
+      </c>
+      <c r="H32">
+        <v>-0.0386004772220384</v>
+      </c>
+      <c r="I32">
+        <v>8.847990157144291e-05</v>
+      </c>
+      <c r="J32">
+        <v>-0.01250568235293495</v>
+      </c>
+      <c r="K32">
+        <v>0.00216216396249899</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1112910271965497</v>
+        <v>0.09959187774057378</v>
       </c>
       <c r="C33">
-        <v>0.01689601788289245</v>
+        <v>-0.05479562989528569</v>
       </c>
       <c r="D33">
-        <v>0.009203162087559637</v>
+        <v>-0.06967045253504463</v>
       </c>
       <c r="E33">
-        <v>0.00765613926577209</v>
+        <v>-0.0259981369567981</v>
       </c>
       <c r="F33">
-        <v>-0.05956857231760805</v>
+        <v>0.01762409509732084</v>
       </c>
       <c r="G33">
-        <v>0.05176436038582045</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03722696365779014</v>
+      </c>
+      <c r="H33">
+        <v>-0.04961001134590037</v>
+      </c>
+      <c r="I33">
+        <v>0.0115861493243512</v>
+      </c>
+      <c r="J33">
+        <v>0.01913712400856161</v>
+      </c>
+      <c r="K33">
+        <v>-0.02429368610345151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06571111413027927</v>
+        <v>0.07098423119115496</v>
       </c>
       <c r="C34">
-        <v>0.0478919517872955</v>
+        <v>-0.05539856253610235</v>
       </c>
       <c r="D34">
-        <v>-0.01139615247273984</v>
+        <v>-0.01781829070778661</v>
       </c>
       <c r="E34">
-        <v>0.00824784676645803</v>
+        <v>-0.02757903828707104</v>
       </c>
       <c r="F34">
-        <v>-0.03199920444527371</v>
+        <v>0.01715964209231308</v>
       </c>
       <c r="G34">
-        <v>0.09563850444666797</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.09340668152450209</v>
+      </c>
+      <c r="H34">
+        <v>-0.08724361147020752</v>
+      </c>
+      <c r="I34">
+        <v>-0.005392990823775882</v>
+      </c>
+      <c r="J34">
+        <v>0.09067782762606801</v>
+      </c>
+      <c r="K34">
+        <v>0.01890288321000369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04573000758569869</v>
+        <v>0.02085719376305058</v>
       </c>
       <c r="C35">
-        <v>0.007525486871709058</v>
+        <v>-0.0168570546902895</v>
       </c>
       <c r="D35">
-        <v>0.01857669163848038</v>
+        <v>-0.00492954205575713</v>
       </c>
       <c r="E35">
-        <v>0.01102064273602781</v>
+        <v>-0.005545944573895047</v>
       </c>
       <c r="F35">
-        <v>0.03778188697622334</v>
+        <v>0.001416611375869115</v>
       </c>
       <c r="G35">
-        <v>0.0573970792331293</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.05768616383996147</v>
+      </c>
+      <c r="H35">
+        <v>-0.026317130471126</v>
+      </c>
+      <c r="I35">
+        <v>-0.0017297465487259</v>
+      </c>
+      <c r="J35">
+        <v>-0.007817886632729164</v>
+      </c>
+      <c r="K35">
+        <v>0.06788419929136073</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03728779706788166</v>
+        <v>0.03050405404201912</v>
       </c>
       <c r="C36">
-        <v>0.004630705579142119</v>
+        <v>-0.01167994869755689</v>
       </c>
       <c r="D36">
-        <v>-0.0210088228009008</v>
+        <v>-0.003767888573032835</v>
       </c>
       <c r="E36">
-        <v>0.03430418031766255</v>
+        <v>0.005462093587327549</v>
       </c>
       <c r="F36">
-        <v>-0.01088217270848014</v>
+        <v>-0.005891615526556395</v>
       </c>
       <c r="G36">
-        <v>0.05486954211466054</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.04675328295792347</v>
+      </c>
+      <c r="H36">
+        <v>-0.05108252132352151</v>
+      </c>
+      <c r="I36">
+        <v>-0.00575667613285849</v>
+      </c>
+      <c r="J36">
+        <v>-0.02622917340934467</v>
+      </c>
+      <c r="K36">
+        <v>-0.0136179916259124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.05500270075006874</v>
+        <v>0.02192075645642717</v>
       </c>
       <c r="C38">
-        <v>0.01798757796273301</v>
+        <v>-0.02049832336887937</v>
       </c>
       <c r="D38">
-        <v>-0.006366697071329671</v>
+        <v>-0.0135782335565466</v>
       </c>
       <c r="E38">
-        <v>0.01104842256993057</v>
+        <v>0.0001057549481968352</v>
       </c>
       <c r="F38">
-        <v>-0.007281673886921592</v>
+        <v>-0.02380584288231389</v>
       </c>
       <c r="G38">
-        <v>0.05916527948514367</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01091176801011723</v>
+      </c>
+      <c r="H38">
+        <v>0.04379183410836962</v>
+      </c>
+      <c r="I38">
+        <v>-0.004252680888059031</v>
+      </c>
+      <c r="J38">
+        <v>-0.02512766844574541</v>
+      </c>
+      <c r="K38">
+        <v>0.001292233171009644</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.1094306538130101</v>
+        <v>0.11929105215157</v>
       </c>
       <c r="C39">
-        <v>0.03774041155913028</v>
+        <v>-0.08652186575789508</v>
       </c>
       <c r="D39">
-        <v>-0.008052194793467733</v>
+        <v>-0.0464257282901116</v>
       </c>
       <c r="E39">
-        <v>0.07055092242808736</v>
+        <v>-0.07685479693755803</v>
       </c>
       <c r="F39">
-        <v>-0.01160942412100708</v>
+        <v>0.07569429871292195</v>
       </c>
       <c r="G39">
-        <v>0.1537140076133956</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.1342882841842912</v>
+      </c>
+      <c r="H39">
+        <v>-0.07447556300624393</v>
+      </c>
+      <c r="I39">
+        <v>-0.02463377787878103</v>
+      </c>
+      <c r="J39">
+        <v>0.1697881499414099</v>
+      </c>
+      <c r="K39">
+        <v>0.01012433422389832</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.05293687463740519</v>
+        <v>0.01911109499595371</v>
       </c>
       <c r="C40">
-        <v>0.02005372802934643</v>
+        <v>-0.03280065594023708</v>
       </c>
       <c r="D40">
-        <v>0.02159305494862314</v>
+        <v>0.004189626109572466</v>
       </c>
       <c r="E40">
-        <v>0.09819417133434538</v>
+        <v>0.04173891485877832</v>
       </c>
       <c r="F40">
-        <v>0.015888874336754</v>
+        <v>-0.05476457549306484</v>
       </c>
       <c r="G40">
-        <v>0.2389788667069709</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.0715504266198986</v>
+      </c>
+      <c r="H40">
+        <v>-0.09339783704831353</v>
+      </c>
+      <c r="I40">
+        <v>-0.07919374377387203</v>
+      </c>
+      <c r="J40">
+        <v>-0.05403932627571401</v>
+      </c>
+      <c r="K40">
+        <v>0.05194555810098813</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.04840087677080825</v>
+        <v>0.0326768408524057</v>
       </c>
       <c r="C41">
-        <v>0.02802902057069832</v>
+        <v>-0.01667156469069391</v>
       </c>
       <c r="D41">
-        <v>-0.0006867649934996588</v>
+        <v>0.007431082343283115</v>
       </c>
       <c r="E41">
-        <v>-0.01234156974612355</v>
+        <v>-0.01157301866991403</v>
       </c>
       <c r="F41">
-        <v>-0.02795012060721994</v>
+        <v>0.002427847185388681</v>
       </c>
       <c r="G41">
-        <v>0.06402477187841142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01975227066600656</v>
+      </c>
+      <c r="H41">
+        <v>-0.01470806680362357</v>
+      </c>
+      <c r="I41">
+        <v>0.01796609697754191</v>
+      </c>
+      <c r="J41">
+        <v>-0.02172554920957742</v>
+      </c>
+      <c r="K41">
+        <v>0.02504988876416061</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.07359834840504043</v>
+        <v>0.04767631007732518</v>
       </c>
       <c r="C43">
-        <v>0.02797647300238975</v>
+        <v>-0.01987049518683437</v>
       </c>
       <c r="D43">
-        <v>-0.01827387479992471</v>
+        <v>-0.01588731939440481</v>
       </c>
       <c r="E43">
-        <v>0.02386746103244137</v>
+        <v>-0.00367741120550859</v>
       </c>
       <c r="F43">
-        <v>-0.01872036933537871</v>
+        <v>-0.01013968463492676</v>
       </c>
       <c r="G43">
-        <v>0.008487797584089523</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.03453705909605834</v>
+      </c>
+      <c r="H43">
+        <v>-0.0005371252503811829</v>
+      </c>
+      <c r="I43">
+        <v>0.01527373773951415</v>
+      </c>
+      <c r="J43">
+        <v>-0.01634206441602875</v>
+      </c>
+      <c r="K43">
+        <v>0.006861294128478645</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.07174632333110248</v>
+        <v>0.1113969881665124</v>
       </c>
       <c r="C44">
-        <v>0.01991665170781022</v>
+        <v>-0.09184919309150448</v>
       </c>
       <c r="D44">
-        <v>-0.09598969325280018</v>
+        <v>-0.04115428263224526</v>
       </c>
       <c r="E44">
-        <v>0.05729161745147972</v>
+        <v>-0.01458979332655298</v>
       </c>
       <c r="F44">
-        <v>-0.05694439563080396</v>
+        <v>-0.1103643573228223</v>
       </c>
       <c r="G44">
-        <v>0.1003848532773153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.2363966295641547</v>
+      </c>
+      <c r="H44">
+        <v>-0.119117752737314</v>
+      </c>
+      <c r="I44">
+        <v>-0.1094014798017263</v>
+      </c>
+      <c r="J44">
+        <v>-0.01047276853234577</v>
+      </c>
+      <c r="K44">
+        <v>0.09129256490349523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.04840990174128415</v>
+        <v>0.02638410748412131</v>
       </c>
       <c r="C46">
-        <v>0.04168659013397073</v>
+        <v>-0.009769832493559439</v>
       </c>
       <c r="D46">
-        <v>-0.02865388615635004</v>
+        <v>-0.0134397201509839</v>
       </c>
       <c r="E46">
-        <v>0.0497739893792541</v>
+        <v>0.001499714081257674</v>
       </c>
       <c r="F46">
-        <v>-0.02334018534572669</v>
+        <v>-0.04499967246327102</v>
       </c>
       <c r="G46">
-        <v>0.02882996957060638</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05635997622888884</v>
+      </c>
+      <c r="H46">
+        <v>-0.02477694945391822</v>
+      </c>
+      <c r="I46">
+        <v>0.009524282778375399</v>
+      </c>
+      <c r="J46">
+        <v>-0.05467281067299715</v>
+      </c>
+      <c r="K46">
+        <v>0.07582718533362301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.04779723843839827</v>
+        <v>0.04001736649387095</v>
       </c>
       <c r="C47">
-        <v>0.0001706979866371717</v>
+        <v>-0.01623941148287529</v>
       </c>
       <c r="D47">
-        <v>-0.008600428131172195</v>
+        <v>-0.001332517888596986</v>
       </c>
       <c r="E47">
-        <v>0.06377275421703993</v>
+        <v>0.008642784224886851</v>
       </c>
       <c r="F47">
-        <v>0.004010070620228369</v>
+        <v>-0.008122997714881609</v>
       </c>
       <c r="G47">
-        <v>-0.004830440588799978</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04677569214449193</v>
+      </c>
+      <c r="H47">
+        <v>-0.0261258681902796</v>
+      </c>
+      <c r="I47">
+        <v>0.009728318720934843</v>
+      </c>
+      <c r="J47">
+        <v>-0.05305190126210017</v>
+      </c>
+      <c r="K47">
+        <v>0.02865600737173768</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.04486583588901129</v>
+        <v>0.04415455599534218</v>
       </c>
       <c r="C48">
-        <v>-0.002901227090029771</v>
+        <v>-0.01501566061443898</v>
       </c>
       <c r="D48">
-        <v>0.005316965335737309</v>
+        <v>-0.007953272091819431</v>
       </c>
       <c r="E48">
-        <v>0.03714465921559711</v>
+        <v>-0.006729047811931221</v>
       </c>
       <c r="F48">
-        <v>-0.009033469060644225</v>
+        <v>-0.004745652069006433</v>
       </c>
       <c r="G48">
-        <v>0.03936153102353635</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.05313406540784098</v>
+      </c>
+      <c r="H48">
+        <v>-0.04582914098738121</v>
+      </c>
+      <c r="I48">
+        <v>-0.008781763884164783</v>
+      </c>
+      <c r="J48">
+        <v>-0.0001980448366469236</v>
+      </c>
+      <c r="K48">
+        <v>0.0192473803624743</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.2325694972591626</v>
+        <v>0.2303674682660894</v>
       </c>
       <c r="C49">
-        <v>0.08801222100997472</v>
+        <v>-0.04098930221263646</v>
       </c>
       <c r="D49">
-        <v>-0.02789791903853036</v>
+        <v>0.05595171711177961</v>
       </c>
       <c r="E49">
-        <v>-0.08969248025900399</v>
+        <v>-0.0585637837934126</v>
       </c>
       <c r="F49">
-        <v>0.160956303141093</v>
+        <v>-0.005323980854683438</v>
       </c>
       <c r="G49">
-        <v>-0.06991624752023447</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.2101002702046581</v>
+      </c>
+      <c r="H49">
+        <v>0.1589020311362291</v>
+      </c>
+      <c r="I49">
+        <v>-0.1711250397966915</v>
+      </c>
+      <c r="J49">
+        <v>0.2319843714262127</v>
+      </c>
+      <c r="K49">
+        <v>-0.1416940693487744</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.05494669949100468</v>
+        <v>0.04368535809982776</v>
       </c>
       <c r="C50">
-        <v>0.01286582706658583</v>
+        <v>-0.02571018431183021</v>
       </c>
       <c r="D50">
-        <v>0.004841140962588053</v>
+        <v>0.006273394539916684</v>
       </c>
       <c r="E50">
-        <v>0.02527134883485933</v>
+        <v>0.00433793259510098</v>
       </c>
       <c r="F50">
-        <v>-0.05966236626857121</v>
+        <v>0.0005851857006174848</v>
       </c>
       <c r="G50">
-        <v>-0.01033973485201592</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.04521393007379636</v>
+      </c>
+      <c r="H50">
+        <v>-0.03143536263286023</v>
+      </c>
+      <c r="I50">
+        <v>0.02387598380224529</v>
+      </c>
+      <c r="J50">
+        <v>-0.02281753216464024</v>
+      </c>
+      <c r="K50">
+        <v>-0.02598282004333765</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03727814172656045</v>
+        <v>0.01995196888147319</v>
       </c>
       <c r="C51">
-        <v>0.01174925884540448</v>
+        <v>0.002903792092982408</v>
       </c>
       <c r="D51">
-        <v>-0.01772390793803344</v>
+        <v>-0.01457634247530065</v>
       </c>
       <c r="E51">
-        <v>-0.009278559260871762</v>
+        <v>-0.01277086803445034</v>
       </c>
       <c r="F51">
-        <v>-0.001250929628950623</v>
+        <v>-0.01604857125795548</v>
       </c>
       <c r="G51">
-        <v>-0.009764171698941618</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02542271876622443</v>
+      </c>
+      <c r="H51">
+        <v>0.005621053327948689</v>
+      </c>
+      <c r="I51">
+        <v>-0.01655708454302597</v>
+      </c>
+      <c r="J51">
+        <v>0.02607199061357487</v>
+      </c>
+      <c r="K51">
+        <v>-0.006252416472554805</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.07220449886746058</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.03916099757269603</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.006373775620316798</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.01579370062710777</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01369773668196856</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.04880655870983234</v>
+      </c>
+      <c r="H52">
+        <v>0.03357920676322642</v>
+      </c>
+      <c r="I52">
+        <v>0.1341277508985461</v>
+      </c>
+      <c r="J52">
+        <v>-0.001007130005656032</v>
+      </c>
+      <c r="K52">
+        <v>-0.0119232654305504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1597540289127563</v>
+        <v>0.1624736323793645</v>
       </c>
       <c r="C53">
-        <v>0.001824706875317493</v>
+        <v>-0.03151645819365965</v>
       </c>
       <c r="D53">
-        <v>-0.01178160433337678</v>
+        <v>-0.006590339855636052</v>
       </c>
       <c r="E53">
-        <v>-0.05663065807103296</v>
+        <v>-0.02132237093976147</v>
       </c>
       <c r="F53">
-        <v>-0.2336647720404101</v>
+        <v>-0.01418736824999544</v>
       </c>
       <c r="G53">
-        <v>-0.07587568585345608</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.006499498332764557</v>
+      </c>
+      <c r="H53">
+        <v>0.1026516978857652</v>
+      </c>
+      <c r="I53">
+        <v>0.2781977758288887</v>
+      </c>
+      <c r="J53">
+        <v>-0.0693808357769488</v>
+      </c>
+      <c r="K53">
+        <v>-0.09426291775751401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.05403995312588239</v>
+        <v>0.05213919628368896</v>
       </c>
       <c r="C54">
-        <v>0.00757218448596798</v>
+        <v>-0.03121017757171948</v>
       </c>
       <c r="D54">
-        <v>-0.02296549390020087</v>
+        <v>0.002894317483223319</v>
       </c>
       <c r="E54">
-        <v>0.04013984588266413</v>
+        <v>0.008397539334369647</v>
       </c>
       <c r="F54">
-        <v>-0.02614263899792481</v>
+        <v>-0.02417296172064163</v>
       </c>
       <c r="G54">
-        <v>0.0683440552809134</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.0685635589751292</v>
+      </c>
+      <c r="H54">
+        <v>-0.1232688867525769</v>
+      </c>
+      <c r="I54">
+        <v>0.005569553369656099</v>
+      </c>
+      <c r="J54">
+        <v>-0.1171301550265541</v>
+      </c>
+      <c r="K54">
+        <v>0.06450044586501626</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.0935923226541399</v>
+        <v>0.08887548343534203</v>
       </c>
       <c r="C55">
-        <v>0.01521206021619784</v>
+        <v>-0.03252774519003958</v>
       </c>
       <c r="D55">
-        <v>-0.01784518211904464</v>
+        <v>-0.05384470707953232</v>
       </c>
       <c r="E55">
-        <v>-0.0008308809074153103</v>
+        <v>-0.03861294983988987</v>
       </c>
       <c r="F55">
-        <v>-0.1802912845791623</v>
+        <v>0.001911239472261359</v>
       </c>
       <c r="G55">
-        <v>-0.0231951121412582</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.0175303807404428</v>
+      </c>
+      <c r="H55">
+        <v>0.01759512040051197</v>
+      </c>
+      <c r="I55">
+        <v>0.1655923747258556</v>
+      </c>
+      <c r="J55">
+        <v>-0.03264215536243279</v>
+      </c>
+      <c r="K55">
+        <v>-0.03862481655155587</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1610608555187957</v>
+        <v>0.1597045129334589</v>
       </c>
       <c r="C56">
-        <v>0.002707526887312491</v>
+        <v>-0.04386405800420638</v>
       </c>
       <c r="D56">
-        <v>-0.002170573739565824</v>
+        <v>-0.01849357206889236</v>
       </c>
       <c r="E56">
-        <v>-0.05665220943508609</v>
+        <v>-0.04529550947943798</v>
       </c>
       <c r="F56">
-        <v>-0.2339675134235493</v>
+        <v>-0.006582440101958235</v>
       </c>
       <c r="G56">
-        <v>-0.0786118314365243</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.04268729891517266</v>
+      </c>
+      <c r="H56">
+        <v>0.07314370513945599</v>
+      </c>
+      <c r="I56">
+        <v>0.2259191925862307</v>
+      </c>
+      <c r="J56">
+        <v>-0.04240935411764346</v>
+      </c>
+      <c r="K56">
+        <v>-0.08558258104738366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02425526103652734</v>
+        <v>0.0394136860560778</v>
       </c>
       <c r="C58">
-        <v>0.05682569828437988</v>
+        <v>-0.03139003626343382</v>
       </c>
       <c r="D58">
-        <v>0.02452657842145373</v>
+        <v>-0.006099622670252512</v>
       </c>
       <c r="E58">
-        <v>0.2577350400539309</v>
+        <v>0.05729054143165963</v>
       </c>
       <c r="F58">
-        <v>0.4017247245853375</v>
+        <v>-0.05973071952563555</v>
       </c>
       <c r="G58">
-        <v>0.1635584794029986</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1077088872365524</v>
+      </c>
+      <c r="H58">
+        <v>0.0004603899925821291</v>
+      </c>
+      <c r="I58">
+        <v>-0.1197390515697227</v>
+      </c>
+      <c r="J58">
+        <v>-0.02239421346577107</v>
+      </c>
+      <c r="K58">
+        <v>0.2337152119800372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1546167936172833</v>
+        <v>0.1798627269482775</v>
       </c>
       <c r="C59">
-        <v>-0.3874236886308416</v>
+        <v>0.3005705820264595</v>
       </c>
       <c r="D59">
-        <v>-0.08178228446373675</v>
+        <v>-0.03120005274386312</v>
       </c>
       <c r="E59">
-        <v>-0.075417039806306</v>
+        <v>-0.0578725366145059</v>
       </c>
       <c r="F59">
-        <v>-0.04589808368766262</v>
+        <v>0.01269281268548262</v>
       </c>
       <c r="G59">
-        <v>0.02861965810182649</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02088411601069507</v>
+      </c>
+      <c r="H59">
+        <v>-0.05291037840139793</v>
+      </c>
+      <c r="I59">
+        <v>0.04895976876084274</v>
+      </c>
+      <c r="J59">
+        <v>0.03324844076871257</v>
+      </c>
+      <c r="K59">
+        <v>-0.02465057335984564</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2661071638823549</v>
+        <v>0.2689080934561879</v>
       </c>
       <c r="C60">
-        <v>0.07435157771133499</v>
+        <v>-0.1433212669942518</v>
       </c>
       <c r="D60">
-        <v>-0.07451523909297501</v>
+        <v>0.05807400586668886</v>
       </c>
       <c r="E60">
-        <v>-0.08094751969128661</v>
+        <v>-0.1268726475568723</v>
       </c>
       <c r="F60">
-        <v>0.1001967052051327</v>
+        <v>-0.0364005663790588</v>
       </c>
       <c r="G60">
-        <v>-0.1623335390503064</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.06198770754026624</v>
+      </c>
+      <c r="H60">
+        <v>0.2186945049995442</v>
+      </c>
+      <c r="I60">
+        <v>-0.2472889763163277</v>
+      </c>
+      <c r="J60">
+        <v>0.09276410378219017</v>
+      </c>
+      <c r="K60">
+        <v>-0.3214173301980709</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.09520606156265937</v>
+        <v>0.1066219304526955</v>
       </c>
       <c r="C61">
-        <v>0.02004803856154872</v>
+        <v>-0.04670778219738445</v>
       </c>
       <c r="D61">
-        <v>-0.002588251172890198</v>
+        <v>-0.03574794390381322</v>
       </c>
       <c r="E61">
-        <v>0.02102661386706255</v>
+        <v>-0.0632161922663325</v>
       </c>
       <c r="F61">
-        <v>-0.02139290594089375</v>
+        <v>0.03237926268829598</v>
       </c>
       <c r="G61">
-        <v>0.065706212134126</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.1177824396178562</v>
+      </c>
+      <c r="H61">
+        <v>-0.08880428017061384</v>
+      </c>
+      <c r="I61">
+        <v>0.03926424554382135</v>
+      </c>
+      <c r="J61">
+        <v>0.08962300007880598</v>
+      </c>
+      <c r="K61">
+        <v>0.03141168802149256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1448159442382314</v>
+        <v>0.1534711680420964</v>
       </c>
       <c r="C62">
-        <v>0.02820001424903328</v>
+        <v>-0.04710272627379129</v>
       </c>
       <c r="D62">
-        <v>0.03602488795980242</v>
+        <v>-0.02162932465795251</v>
       </c>
       <c r="E62">
-        <v>-0.1278614081672926</v>
+        <v>-0.03605814343790913</v>
       </c>
       <c r="F62">
-        <v>-0.2464647025099012</v>
+        <v>0.01232020764064322</v>
       </c>
       <c r="G62">
-        <v>-0.04498602438415772</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.02291864528579671</v>
+      </c>
+      <c r="H62">
+        <v>0.08936663558643503</v>
+      </c>
+      <c r="I62">
+        <v>0.2268739706390095</v>
+      </c>
+      <c r="J62">
+        <v>-0.07074693513983193</v>
+      </c>
+      <c r="K62">
+        <v>-0.07945789948764803</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.04312160705482704</v>
+        <v>0.0392011369661288</v>
       </c>
       <c r="C63">
-        <v>0.0167050021772493</v>
+        <v>-0.004017851440525027</v>
       </c>
       <c r="D63">
-        <v>0.01008372286669892</v>
+        <v>-0.01167248699794804</v>
       </c>
       <c r="E63">
-        <v>0.01067173160870032</v>
+        <v>0.02061152589624063</v>
       </c>
       <c r="F63">
-        <v>-0.03162285785634428</v>
+        <v>0.01971323815764206</v>
       </c>
       <c r="G63">
-        <v>0.03736475434730251</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.03556944417206063</v>
+      </c>
+      <c r="H63">
+        <v>-0.05685612660623911</v>
+      </c>
+      <c r="I63">
+        <v>-0.002239099667966072</v>
+      </c>
+      <c r="J63">
+        <v>-0.01869566309852772</v>
+      </c>
+      <c r="K63">
+        <v>0.005123239403126747</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.107605363469059</v>
+        <v>0.1005733189426881</v>
       </c>
       <c r="C64">
-        <v>0.01479529283500571</v>
+        <v>-0.02543080980560359</v>
       </c>
       <c r="D64">
-        <v>-0.03934873103027032</v>
+        <v>0.005146354265253329</v>
       </c>
       <c r="E64">
-        <v>0.0376909654911218</v>
+        <v>-0.03562591234595243</v>
       </c>
       <c r="F64">
-        <v>0.01970979351225664</v>
+        <v>-0.03898351437321047</v>
       </c>
       <c r="G64">
-        <v>0.05882978320414632</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06094862204829839</v>
+      </c>
+      <c r="H64">
+        <v>-0.04240316748765997</v>
+      </c>
+      <c r="I64">
+        <v>-0.08121898974282389</v>
+      </c>
+      <c r="J64">
+        <v>0.01599457130953936</v>
+      </c>
+      <c r="K64">
+        <v>-0.03269198532255968</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1199900766145027</v>
+        <v>0.1147401760929725</v>
       </c>
       <c r="C65">
-        <v>0.02583500732695903</v>
+        <v>-0.007099037806486076</v>
       </c>
       <c r="D65">
-        <v>-0.01854182042324497</v>
+        <v>0.005760370940558913</v>
       </c>
       <c r="E65">
-        <v>0.05584974784120815</v>
+        <v>0.02874240482419448</v>
       </c>
       <c r="F65">
-        <v>0.1941087339427131</v>
+        <v>0.01745803187074953</v>
       </c>
       <c r="G65">
-        <v>-0.1987911590506473</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.03660397630397916</v>
+      </c>
+      <c r="H65">
+        <v>0.004497114927885474</v>
+      </c>
+      <c r="I65">
+        <v>-0.271971541999922</v>
+      </c>
+      <c r="J65">
+        <v>-0.4881506779355251</v>
+      </c>
+      <c r="K65">
+        <v>-0.2782693161068996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1607363212825495</v>
+        <v>0.1455325187428266</v>
       </c>
       <c r="C66">
-        <v>0.0469310000196002</v>
+        <v>-0.1016260457148349</v>
       </c>
       <c r="D66">
-        <v>0.01678158373014454</v>
+        <v>-0.04692254942446674</v>
       </c>
       <c r="E66">
-        <v>0.01883276365498686</v>
+        <v>-0.07440178420717332</v>
       </c>
       <c r="F66">
-        <v>-0.04017075480979729</v>
+        <v>0.08283261551684876</v>
       </c>
       <c r="G66">
-        <v>0.2943176670094588</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.1323640558378904</v>
+      </c>
+      <c r="H66">
+        <v>-0.06098041421105303</v>
+      </c>
+      <c r="I66">
+        <v>-0.009981869712718453</v>
+      </c>
+      <c r="J66">
+        <v>0.2072865514017261</v>
+      </c>
+      <c r="K66">
+        <v>-0.04388203287380395</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.1067159792097417</v>
+        <v>0.07821068377797166</v>
       </c>
       <c r="C67">
-        <v>0.04062373381805219</v>
+        <v>-0.0526591301102307</v>
       </c>
       <c r="D67">
-        <v>-0.02412801119207937</v>
+        <v>-0.08053550221965691</v>
       </c>
       <c r="E67">
-        <v>-0.01231890688402601</v>
+        <v>-0.02659822564150853</v>
       </c>
       <c r="F67">
-        <v>-0.01835037506811915</v>
+        <v>-0.02275260957394968</v>
       </c>
       <c r="G67">
-        <v>0.05415817873220979</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.0552663725985474</v>
+      </c>
+      <c r="H67">
+        <v>0.01543400452131994</v>
+      </c>
+      <c r="I67">
+        <v>0.01269015780880641</v>
+      </c>
+      <c r="J67">
+        <v>0.03931592924527412</v>
+      </c>
+      <c r="K67">
+        <v>-0.06450156944739535</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.04057416292425963</v>
+        <v>0.08882637196015614</v>
       </c>
       <c r="C68">
-        <v>-0.2935217999921267</v>
+        <v>0.2837042307259166</v>
       </c>
       <c r="D68">
-        <v>-0.0350975368583173</v>
+        <v>-0.004512954405567698</v>
       </c>
       <c r="E68">
-        <v>-0.01267153214329322</v>
+        <v>-0.008913862705564195</v>
       </c>
       <c r="F68">
-        <v>0.002399358658459189</v>
+        <v>0.02427077835804414</v>
       </c>
       <c r="G68">
-        <v>-0.02873518090642217</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03572095933589595</v>
+      </c>
+      <c r="H68">
+        <v>-0.02859291552629828</v>
+      </c>
+      <c r="I68">
+        <v>-0.004430913743666213</v>
+      </c>
+      <c r="J68">
+        <v>-0.006584356405258026</v>
+      </c>
+      <c r="K68">
+        <v>-0.01869085194165803</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.04640503332669757</v>
+        <v>0.03689103344653439</v>
       </c>
       <c r="C69">
-        <v>0.01519103770160958</v>
+        <v>-0.00518751761919686</v>
       </c>
       <c r="D69">
-        <v>0.0008916884197461977</v>
+        <v>-0.02550641667353172</v>
       </c>
       <c r="E69">
-        <v>0.0003412662694530336</v>
+        <v>-0.01052332405164075</v>
       </c>
       <c r="F69">
-        <v>-0.003615240659426904</v>
+        <v>-0.00799248855353148</v>
       </c>
       <c r="G69">
-        <v>0.02031448613548443</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.0198033421447445</v>
+      </c>
+      <c r="H69">
+        <v>0.0005541612310835005</v>
+      </c>
+      <c r="I69">
+        <v>0.009840975573982074</v>
+      </c>
+      <c r="J69">
+        <v>-0.02672251730052744</v>
+      </c>
+      <c r="K69">
+        <v>-0.01330889101754027</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.07434184032349923</v>
+        <v>0.04611519599450938</v>
       </c>
       <c r="C70">
-        <v>0.009351844689905459</v>
+        <v>-0.003235999262024226</v>
       </c>
       <c r="D70">
-        <v>-0.03660552926535056</v>
+        <v>-0.03181869585233262</v>
       </c>
       <c r="E70">
-        <v>-0.0289297697678333</v>
+        <v>-0.04874996657766476</v>
       </c>
       <c r="F70">
-        <v>0.070159176809201</v>
+        <v>-0.006173395615253882</v>
       </c>
       <c r="G70">
-        <v>-0.004400673533399567</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.01645503252539501</v>
+      </c>
+      <c r="H70">
+        <v>-0.0145472802084137</v>
+      </c>
+      <c r="I70">
+        <v>-0.04803627935756464</v>
+      </c>
+      <c r="J70">
+        <v>-0.1532760053559878</v>
+      </c>
+      <c r="K70">
+        <v>0.1634249414518515</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.05022670282979984</v>
+        <v>0.1045568561719343</v>
       </c>
       <c r="C71">
-        <v>-0.2965772632680741</v>
+        <v>0.2967418478970612</v>
       </c>
       <c r="D71">
-        <v>-0.05338886298442024</v>
+        <v>-0.007203715398212906</v>
       </c>
       <c r="E71">
-        <v>-0.009666624136894175</v>
+        <v>-0.02663964842075068</v>
       </c>
       <c r="F71">
-        <v>0.00391229183799263</v>
+        <v>-0.002441825756980414</v>
       </c>
       <c r="G71">
-        <v>0.007936666724050351</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.0457479435861616</v>
+      </c>
+      <c r="H71">
+        <v>-0.02000568424630677</v>
+      </c>
+      <c r="I71">
+        <v>-0.004053211736544931</v>
+      </c>
+      <c r="J71">
+        <v>0.02161062493308361</v>
+      </c>
+      <c r="K71">
+        <v>-0.03896143563824461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1471393346547623</v>
+        <v>0.1472328799039198</v>
       </c>
       <c r="C72">
-        <v>-0.04808897125636368</v>
+        <v>-0.0007122645000964764</v>
       </c>
       <c r="D72">
-        <v>0.2354880400146353</v>
+        <v>-0.01465539318823079</v>
       </c>
       <c r="E72">
-        <v>-0.03324090107792363</v>
+        <v>0.0727475128277813</v>
       </c>
       <c r="F72">
-        <v>-0.02606363589401097</v>
+        <v>0.06995499903125588</v>
       </c>
       <c r="G72">
-        <v>0.05380900192972545</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.001416281924200358</v>
+      </c>
+      <c r="H72">
+        <v>0.02198739545568081</v>
+      </c>
+      <c r="I72">
+        <v>0.02755531802414734</v>
+      </c>
+      <c r="J72">
+        <v>-0.08181048546170694</v>
+      </c>
+      <c r="K72">
+        <v>-0.15956431681035</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2836604789647171</v>
+        <v>0.2426073669268186</v>
       </c>
       <c r="C73">
-        <v>0.1542568438780408</v>
+        <v>-0.09698624176235111</v>
       </c>
       <c r="D73">
-        <v>-0.05328574391808028</v>
+        <v>-0.02985316339802845</v>
       </c>
       <c r="E73">
-        <v>-0.1511177453664591</v>
+        <v>-0.1593814165318198</v>
       </c>
       <c r="F73">
-        <v>0.3374618570146252</v>
+        <v>-0.02619702118560129</v>
       </c>
       <c r="G73">
-        <v>-0.2167499902069916</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3064677226797855</v>
+      </c>
+      <c r="H73">
+        <v>0.2755537577620447</v>
+      </c>
+      <c r="I73">
+        <v>-0.2752385847299408</v>
+      </c>
+      <c r="J73">
+        <v>0.1933425663882576</v>
+      </c>
+      <c r="K73">
+        <v>0.08527851387783582</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.09909128632752724</v>
+        <v>0.114067494414325</v>
       </c>
       <c r="C74">
-        <v>0.03660069560255752</v>
+        <v>-0.05289127594364351</v>
       </c>
       <c r="D74">
-        <v>-0.001420549052766051</v>
+        <v>-0.02863423766658321</v>
       </c>
       <c r="E74">
-        <v>-0.01338118597555205</v>
+        <v>-0.01178776782459874</v>
       </c>
       <c r="F74">
-        <v>-0.09762516075865375</v>
+        <v>-0.002102813266827993</v>
       </c>
       <c r="G74">
-        <v>-0.0378581009963259</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05844238847398739</v>
+      </c>
+      <c r="H74">
+        <v>0.08880055519048584</v>
+      </c>
+      <c r="I74">
+        <v>0.1253650324853398</v>
+      </c>
+      <c r="J74">
+        <v>-0.03667182488499362</v>
+      </c>
+      <c r="K74">
+        <v>-0.02249465557010608</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.09346825018287908</v>
+        <v>0.1107806659751182</v>
       </c>
       <c r="C75">
-        <v>0.02080584574063529</v>
+        <v>-0.04441491802194474</v>
       </c>
       <c r="D75">
-        <v>0.02303440708110852</v>
+        <v>-0.01091792020251347</v>
       </c>
       <c r="E75">
-        <v>-0.03451357397012658</v>
+        <v>0.0006470059074047305</v>
       </c>
       <c r="F75">
-        <v>-0.1146941693247992</v>
+        <v>0.007215185731774219</v>
       </c>
       <c r="G75">
-        <v>-0.07026409566928346</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.008043649893012449</v>
+      </c>
+      <c r="H75">
+        <v>0.04084969642769821</v>
+      </c>
+      <c r="I75">
+        <v>0.1585723631595768</v>
+      </c>
+      <c r="J75">
+        <v>-0.03758706680802934</v>
+      </c>
+      <c r="K75">
+        <v>-0.0108547042176275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1356273524756399</v>
+        <v>0.0558058028443547</v>
       </c>
       <c r="C76">
-        <v>0.03495895787160238</v>
+        <v>-0.01777405607251729</v>
       </c>
       <c r="D76">
-        <v>-0.01706466444697987</v>
+        <v>-0.03284757634742628</v>
       </c>
       <c r="E76">
-        <v>0.01340776470873602</v>
+        <v>-0.02042386804542067</v>
       </c>
       <c r="F76">
-        <v>-0.2343698437841124</v>
+        <v>-0.02599285016283367</v>
       </c>
       <c r="G76">
-        <v>-0.1142501653985793</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.0371964466552361</v>
+      </c>
+      <c r="H76">
+        <v>0.0433404505955701</v>
+      </c>
+      <c r="I76">
+        <v>0.1347846368682914</v>
+      </c>
+      <c r="J76">
+        <v>-0.03652001503001762</v>
+      </c>
+      <c r="K76">
+        <v>-0.02469579444614454</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.09131781667400228</v>
+        <v>0.07402386976137565</v>
       </c>
       <c r="C77">
-        <v>-0.01189663807799262</v>
+        <v>-0.03820246529147393</v>
       </c>
       <c r="D77">
-        <v>-0.04274590696014125</v>
+        <v>0.02410043813705298</v>
       </c>
       <c r="E77">
-        <v>0.05714891054559575</v>
+        <v>-0.01937993086544681</v>
       </c>
       <c r="F77">
-        <v>0.1827564728863793</v>
+        <v>-0.03340213451914314</v>
       </c>
       <c r="G77">
-        <v>0.2101431624545607</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.09217858561944907</v>
+      </c>
+      <c r="H77">
+        <v>-0.2104266473299521</v>
+      </c>
+      <c r="I77">
+        <v>-0.1772609087961185</v>
+      </c>
+      <c r="J77">
+        <v>-0.08365203977464376</v>
+      </c>
+      <c r="K77">
+        <v>-0.1705476911973787</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.2182078601735773</v>
+        <v>0.1525440989697869</v>
       </c>
       <c r="C78">
-        <v>0.06216638396596386</v>
+        <v>-0.08403926747618075</v>
       </c>
       <c r="D78">
-        <v>-0.07343349353868069</v>
+        <v>-0.1180848400548634</v>
       </c>
       <c r="E78">
-        <v>0.1899924575477498</v>
+        <v>0.1997604115083197</v>
       </c>
       <c r="F78">
-        <v>-0.003212228228741275</v>
+        <v>-0.1563650511131739</v>
       </c>
       <c r="G78">
-        <v>0.1379923417879094</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.6337841837865861</v>
+      </c>
+      <c r="H78">
+        <v>-0.6077071416972611</v>
+      </c>
+      <c r="I78">
+        <v>0.1733091002571409</v>
+      </c>
+      <c r="J78">
+        <v>0.07923148639110349</v>
+      </c>
+      <c r="K78">
+        <v>-0.05329822693194919</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1362693859118933</v>
+        <v>0.1371561089901745</v>
       </c>
       <c r="C79">
-        <v>0.01634658824252684</v>
+        <v>-0.04510757882957722</v>
       </c>
       <c r="D79">
-        <v>0.005136044929712276</v>
+        <v>0.003350571463837325</v>
       </c>
       <c r="E79">
-        <v>-0.02193395741799813</v>
+        <v>-0.01368689538187574</v>
       </c>
       <c r="F79">
-        <v>-0.1693317445579886</v>
+        <v>0.001415208101042995</v>
       </c>
       <c r="G79">
-        <v>-0.02335609411922206</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.03109268638419801</v>
+      </c>
+      <c r="H79">
+        <v>0.05380945074185031</v>
+      </c>
+      <c r="I79">
+        <v>0.16584842769406</v>
+      </c>
+      <c r="J79">
+        <v>-0.05687191125740913</v>
+      </c>
+      <c r="K79">
+        <v>-0.07776668269293963</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03387688328383799</v>
+        <v>0.0636292210373421</v>
       </c>
       <c r="C80">
-        <v>0.009222271011479401</v>
+        <v>-0.04369686995537737</v>
       </c>
       <c r="D80">
-        <v>-0.01855987881890164</v>
+        <v>-0.03608957964989773</v>
       </c>
       <c r="E80">
-        <v>-0.02763494763922074</v>
+        <v>-0.0531388230341354</v>
       </c>
       <c r="F80">
-        <v>0.01095831761694126</v>
+        <v>0.01814923426358408</v>
       </c>
       <c r="G80">
-        <v>0.06301283467678273</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.01617175634585146</v>
+      </c>
+      <c r="H80">
+        <v>-0.08440231515193657</v>
+      </c>
+      <c r="I80">
+        <v>0.03849099160246517</v>
+      </c>
+      <c r="J80">
+        <v>-0.0108764848268385</v>
+      </c>
+      <c r="K80">
+        <v>0.1752219706150081</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1112413943322381</v>
+        <v>0.1321913239711244</v>
       </c>
       <c r="C81">
-        <v>0.009609738769357924</v>
+        <v>-0.0496841276362425</v>
       </c>
       <c r="D81">
-        <v>-0.01119570311255505</v>
+        <v>-0.00921083469682824</v>
       </c>
       <c r="E81">
-        <v>-0.01269203966909266</v>
+        <v>-0.01336605796782464</v>
       </c>
       <c r="F81">
-        <v>-0.1315382457086035</v>
+        <v>-0.01025899744637106</v>
       </c>
       <c r="G81">
-        <v>-0.0484406215753081</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.04892625336684311</v>
+      </c>
+      <c r="H81">
+        <v>0.03069616493130633</v>
+      </c>
+      <c r="I81">
+        <v>0.1543604434760941</v>
+      </c>
+      <c r="J81">
+        <v>-0.02486040139199889</v>
+      </c>
+      <c r="K81">
+        <v>-0.02248112009410367</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1085757682383183</v>
+        <v>0.1449963178421382</v>
       </c>
       <c r="C82">
-        <v>0.03081602258982425</v>
+        <v>-0.04219785266685812</v>
       </c>
       <c r="D82">
-        <v>-0.05288583357957172</v>
+        <v>-0.01201106031800309</v>
       </c>
       <c r="E82">
-        <v>-0.05093944568407455</v>
+        <v>-0.06409970109093137</v>
       </c>
       <c r="F82">
-        <v>-0.2270735999099431</v>
+        <v>0.004607016955265571</v>
       </c>
       <c r="G82">
-        <v>-0.01972157266235082</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.04635555113367117</v>
+      </c>
+      <c r="H82">
+        <v>0.1155683746504646</v>
+      </c>
+      <c r="I82">
+        <v>0.2767597257410451</v>
+      </c>
+      <c r="J82">
+        <v>0.007244585536985012</v>
+      </c>
+      <c r="K82">
+        <v>0.01510096319481261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.1047572569552749</v>
+        <v>0.09393126293650368</v>
       </c>
       <c r="C83">
-        <v>0.05464223275552839</v>
+        <v>-0.09843086191425941</v>
       </c>
       <c r="D83">
-        <v>-0.06318007625071628</v>
+        <v>0.01633770204325485</v>
       </c>
       <c r="E83">
-        <v>-0.01704647941860648</v>
+        <v>-0.004110202142566458</v>
       </c>
       <c r="F83">
-        <v>0.07977907360371354</v>
+        <v>-0.01232051488036432</v>
       </c>
       <c r="G83">
-        <v>0.08782093365259827</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05565406622704232</v>
+      </c>
+      <c r="H83">
+        <v>-0.08106584347393558</v>
+      </c>
+      <c r="I83">
+        <v>-0.0337587015723619</v>
+      </c>
+      <c r="J83">
+        <v>-0.1371891940221756</v>
+      </c>
+      <c r="K83">
+        <v>0.1303047230513812</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.04911414206804963</v>
+        <v>0.05892669585152015</v>
       </c>
       <c r="C84">
-        <v>0.0204363967703599</v>
+        <v>0.003921464230267345</v>
       </c>
       <c r="D84">
-        <v>0.04685216318826146</v>
+        <v>0.0320850422568425</v>
       </c>
       <c r="E84">
-        <v>0.0246830384414512</v>
+        <v>-0.03133288074679589</v>
       </c>
       <c r="F84">
-        <v>-0.02284648072100517</v>
+        <v>0.01210560482947032</v>
       </c>
       <c r="G84">
-        <v>-0.04175668933933639</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.01751445871197291</v>
+      </c>
+      <c r="H84">
+        <v>0.003372665518203834</v>
+      </c>
+      <c r="I84">
+        <v>-0.1118599153404278</v>
+      </c>
+      <c r="J84">
+        <v>0.365288165907437</v>
+      </c>
+      <c r="K84">
+        <v>0.1402763512902079</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1007708155424391</v>
+        <v>0.1189668336337075</v>
       </c>
       <c r="C85">
-        <v>0.02406209202435592</v>
+        <v>-0.03631442861310772</v>
       </c>
       <c r="D85">
-        <v>-0.02069508328531278</v>
+        <v>-0.005456936654123124</v>
       </c>
       <c r="E85">
-        <v>-0.02269279690908037</v>
+        <v>-0.03704702401263255</v>
       </c>
       <c r="F85">
-        <v>-0.2017244474854505</v>
+        <v>-0.01712049683205571</v>
       </c>
       <c r="G85">
-        <v>-0.03611985816473424</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.03029608936865503</v>
+      </c>
+      <c r="H85">
+        <v>0.0374287760451462</v>
+      </c>
+      <c r="I85">
+        <v>0.1962076095899499</v>
+      </c>
+      <c r="J85">
+        <v>-0.04499894274695783</v>
+      </c>
+      <c r="K85">
+        <v>-0.07053182293214402</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.06857974309182191</v>
+        <v>0.1345076577544577</v>
       </c>
       <c r="C86">
-        <v>0.0207496886577296</v>
+        <v>-0.04703103752351913</v>
       </c>
       <c r="D86">
-        <v>-0.05402175111483158</v>
+        <v>0.9334615535464403</v>
       </c>
       <c r="E86">
-        <v>0.05568934100537756</v>
+        <v>0.2131417648297173</v>
       </c>
       <c r="F86">
-        <v>0.0033566179022629</v>
+        <v>0.007250437114436295</v>
       </c>
       <c r="G86">
-        <v>0.1029019139622992</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.02112259887881522</v>
+      </c>
+      <c r="H86">
+        <v>-0.06648505987293078</v>
+      </c>
+      <c r="I86">
+        <v>0.06701644630388273</v>
+      </c>
+      <c r="J86">
+        <v>0.04936292533268297</v>
+      </c>
+      <c r="K86">
+        <v>0.04501455224535113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1038373080373405</v>
+        <v>0.1187582004252462</v>
       </c>
       <c r="C87">
-        <v>0.0539381206815982</v>
+        <v>-0.09988309613686101</v>
       </c>
       <c r="D87">
-        <v>-0.02362410409687691</v>
+        <v>0.002480234039766513</v>
       </c>
       <c r="E87">
-        <v>0.06232596938362193</v>
+        <v>-0.02159916821670741</v>
       </c>
       <c r="F87">
-        <v>0.0276001838948852</v>
+        <v>-0.02592798569565237</v>
       </c>
       <c r="G87">
-        <v>0.1089953144854981</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.0839018752288548</v>
+      </c>
+      <c r="H87">
+        <v>-0.1211418688711801</v>
+      </c>
+      <c r="I87">
+        <v>-0.1104812825196546</v>
+      </c>
+      <c r="J87">
+        <v>-0.1175693916199142</v>
+      </c>
+      <c r="K87">
+        <v>-0.008773376193428221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.06891302251488279</v>
+        <v>0.05753562863526684</v>
       </c>
       <c r="C88">
-        <v>0.04092434307656784</v>
+        <v>-0.04065794159462564</v>
       </c>
       <c r="D88">
-        <v>-0.01881020329905655</v>
+        <v>-0.01662098083073984</v>
       </c>
       <c r="E88">
-        <v>0.01148371156147067</v>
+        <v>-0.04410651588495394</v>
       </c>
       <c r="F88">
-        <v>-0.008468934545891935</v>
+        <v>0.02317632158262306</v>
       </c>
       <c r="G88">
-        <v>0.06223424447496814</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02564610919824124</v>
+      </c>
+      <c r="H88">
+        <v>-0.01965988748177437</v>
+      </c>
+      <c r="I88">
+        <v>0.001008278803344002</v>
+      </c>
+      <c r="J88">
+        <v>-0.002169543840383568</v>
+      </c>
+      <c r="K88">
+        <v>0.01076327853510182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.09502108622168053</v>
+        <v>0.1561497884085552</v>
       </c>
       <c r="C89">
-        <v>-0.3733497723338213</v>
+        <v>0.3723841901810986</v>
       </c>
       <c r="D89">
-        <v>-0.1089826096627481</v>
+        <v>-0.004475267018977351</v>
       </c>
       <c r="E89">
-        <v>0.01707533228680566</v>
+        <v>-0.01153805298762825</v>
       </c>
       <c r="F89">
-        <v>0.0537097081803431</v>
+        <v>-0.06520095846215423</v>
       </c>
       <c r="G89">
-        <v>0.0131945290478802</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.002432410778368715</v>
+      </c>
+      <c r="H89">
+        <v>-0.04655897093812687</v>
+      </c>
+      <c r="I89">
+        <v>-0.02149775786035965</v>
+      </c>
+      <c r="J89">
+        <v>0.02256820452344401</v>
+      </c>
+      <c r="K89">
+        <v>0.08089611374792549</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.07553087998775967</v>
+        <v>0.1190781356696264</v>
       </c>
       <c r="C90">
-        <v>-0.293240581748033</v>
+        <v>0.2843077879044916</v>
       </c>
       <c r="D90">
-        <v>-0.04979374766097756</v>
+        <v>0.004727438692807014</v>
       </c>
       <c r="E90">
-        <v>0.0437082456133967</v>
+        <v>-0.02891741051753715</v>
       </c>
       <c r="F90">
-        <v>0.04635672573552852</v>
+        <v>-0.002284517981165969</v>
       </c>
       <c r="G90">
-        <v>0.0524558536446475</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.04535624272005232</v>
+      </c>
+      <c r="H90">
+        <v>-0.03566702337481818</v>
+      </c>
+      <c r="I90">
+        <v>-0.0484012606073402</v>
+      </c>
+      <c r="J90">
+        <v>0.03814916822967025</v>
+      </c>
+      <c r="K90">
+        <v>-0.01546836956303665</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.08442291141727136</v>
+        <v>0.08363212887174051</v>
       </c>
       <c r="C91">
-        <v>0.01807442680336328</v>
+        <v>-0.03719189221001092</v>
       </c>
       <c r="D91">
-        <v>-0.004612748668918823</v>
+        <v>0.01179113298992828</v>
       </c>
       <c r="E91">
-        <v>-0.01432686093752223</v>
+        <v>-0.01381021588391407</v>
       </c>
       <c r="F91">
-        <v>-0.0780802386598189</v>
+        <v>-0.01401722327489254</v>
       </c>
       <c r="G91">
-        <v>-0.07583454384296073</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.0138305838388646</v>
+      </c>
+      <c r="H91">
+        <v>0.04905437338093302</v>
+      </c>
+      <c r="I91">
+        <v>0.1146821817397675</v>
+      </c>
+      <c r="J91">
+        <v>-0.03664711922635103</v>
+      </c>
+      <c r="K91">
+        <v>-0.02570956736186837</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.07096854192427722</v>
+        <v>0.1301970426056915</v>
       </c>
       <c r="C92">
-        <v>-0.3448424943197673</v>
+        <v>0.3346944002625828</v>
       </c>
       <c r="D92">
-        <v>-0.07514443499768217</v>
+        <v>-0.005017421668754418</v>
       </c>
       <c r="E92">
-        <v>0.01968989848584844</v>
+        <v>0.0001705284439139612</v>
       </c>
       <c r="F92">
-        <v>0.03450318163011198</v>
+        <v>-0.03820847664288299</v>
       </c>
       <c r="G92">
-        <v>-0.03188389546246511</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0167697005154607</v>
+      </c>
+      <c r="H92">
+        <v>-0.0715899443910131</v>
+      </c>
+      <c r="I92">
+        <v>0.02943359697090379</v>
+      </c>
+      <c r="J92">
+        <v>0.03574846433084266</v>
+      </c>
+      <c r="K92">
+        <v>-0.0005515117040696899</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.08589825773615901</v>
+        <v>0.1244444679714355</v>
       </c>
       <c r="C93">
-        <v>-0.2967018057046228</v>
+        <v>0.315943975990322</v>
       </c>
       <c r="D93">
-        <v>-0.04783898073198597</v>
+        <v>0.02257254619416854</v>
       </c>
       <c r="E93">
-        <v>0.01006488599005801</v>
+        <v>-0.04800134617302181</v>
       </c>
       <c r="F93">
-        <v>0.02104723494427903</v>
+        <v>0.009563893011784444</v>
       </c>
       <c r="G93">
-        <v>-0.0166193051957099</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.036768221133009</v>
+      </c>
+      <c r="H93">
+        <v>-0.001426701415428745</v>
+      </c>
+      <c r="I93">
+        <v>-0.01970788060600129</v>
+      </c>
+      <c r="J93">
+        <v>0.01225705020010223</v>
+      </c>
+      <c r="K93">
+        <v>-0.01006365391195083</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.09254693700158445</v>
+        <v>0.1269175289449547</v>
       </c>
       <c r="C94">
-        <v>0.05039810910839194</v>
+        <v>-0.05755320286264515</v>
       </c>
       <c r="D94">
-        <v>0.00708158002670796</v>
+        <v>-0.03046333216598618</v>
       </c>
       <c r="E94">
-        <v>-0.004138176327007273</v>
+        <v>-0.01273201742210114</v>
       </c>
       <c r="F94">
-        <v>-0.1283468008272066</v>
+        <v>-0.02108714099130382</v>
       </c>
       <c r="G94">
-        <v>-0.07539330490511707</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.01130042848565148</v>
+      </c>
+      <c r="H94">
+        <v>0.0807153363688323</v>
+      </c>
+      <c r="I94">
+        <v>0.1341892775864376</v>
+      </c>
+      <c r="J94">
+        <v>0.01262268488989555</v>
+      </c>
+      <c r="K94">
+        <v>-0.02979927615560043</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1361378061901264</v>
+        <v>0.1188893610861298</v>
       </c>
       <c r="C95">
-        <v>0.07105222729946248</v>
+        <v>-0.05159891951064215</v>
       </c>
       <c r="D95">
-        <v>-0.05900244108116462</v>
+        <v>-0.0212059607953575</v>
       </c>
       <c r="E95">
-        <v>0.04100833422197662</v>
+        <v>-0.01737200762086752</v>
       </c>
       <c r="F95">
-        <v>0.02858210084021865</v>
+        <v>-0.06546467536909599</v>
       </c>
       <c r="G95">
-        <v>0.1084173842978158</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.02028534293481098</v>
+      </c>
+      <c r="H95">
+        <v>-0.1170493812669103</v>
+      </c>
+      <c r="I95">
+        <v>-0.1786807963986771</v>
+      </c>
+      <c r="J95">
+        <v>-0.001994069712436316</v>
+      </c>
+      <c r="K95">
+        <v>0.1701535763452903</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.009459697320047927</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.00171631578382091</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.0008609757021284068</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.005225439788400722</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.004220425963302792</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.000183576755835267</v>
+      </c>
+      <c r="H96">
+        <v>-0.01635766251650995</v>
+      </c>
+      <c r="I96">
+        <v>-0.01360410340327736</v>
+      </c>
+      <c r="J96">
+        <v>-0.01369325250859022</v>
+      </c>
+      <c r="K96">
+        <v>-0.01929668286231559</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.2011741583796267</v>
+        <v>0.1875545968981858</v>
       </c>
       <c r="C97">
-        <v>-0.141484785478967</v>
+        <v>0.00380667242144229</v>
       </c>
       <c r="D97">
-        <v>0.9033546800789499</v>
+        <v>-0.1898091081519565</v>
       </c>
       <c r="E97">
-        <v>0.02827629992157265</v>
+        <v>0.7319279215297704</v>
       </c>
       <c r="F97">
-        <v>0.05620681458717843</v>
+        <v>0.5685947261187464</v>
       </c>
       <c r="G97">
-        <v>0.04360153646772123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.03789462893717006</v>
+      </c>
+      <c r="H97">
+        <v>0.1152822494816679</v>
+      </c>
+      <c r="I97">
+        <v>-0.06669247716818465</v>
+      </c>
+      <c r="J97">
+        <v>0.05900724171698734</v>
+      </c>
+      <c r="K97">
+        <v>0.03714216997108371</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.3187860949006676</v>
+        <v>0.2688386570654088</v>
       </c>
       <c r="C98">
-        <v>0.06873349998724017</v>
+        <v>-0.05331327656737114</v>
       </c>
       <c r="D98">
-        <v>-0.05521379018358297</v>
+        <v>0.006842700781214483</v>
       </c>
       <c r="E98">
-        <v>-0.2469668099204676</v>
+        <v>-0.02405218832467513</v>
       </c>
       <c r="F98">
-        <v>0.2362283611573421</v>
+        <v>-0.04831690235648569</v>
       </c>
       <c r="G98">
-        <v>-0.2736180076429916</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.2661476875212162</v>
+      </c>
+      <c r="H98">
+        <v>0.2407759213371414</v>
+      </c>
+      <c r="I98">
+        <v>-0.0345507940003137</v>
+      </c>
+      <c r="J98">
+        <v>-0.2631936870952721</v>
+      </c>
+      <c r="K98">
+        <v>0.5849690731899694</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.08552138488328219</v>
+        <v>0.05627993284923721</v>
       </c>
       <c r="C99">
-        <v>0.02653597935115954</v>
+        <v>-0.01046405889304803</v>
       </c>
       <c r="D99">
-        <v>-0.01443774859231318</v>
+        <v>-0.03621948314881541</v>
       </c>
       <c r="E99">
-        <v>-0.01426914077569011</v>
+        <v>-0.0067751785614076</v>
       </c>
       <c r="F99">
-        <v>-0.001831169195355033</v>
+        <v>-0.02748913866452707</v>
       </c>
       <c r="G99">
-        <v>0.01505564760942144</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.01175478449439836</v>
+      </c>
+      <c r="H99">
+        <v>-0.006575468458848982</v>
+      </c>
+      <c r="I99">
+        <v>0.008378046122897361</v>
+      </c>
+      <c r="J99">
+        <v>0.02110820281206426</v>
+      </c>
+      <c r="K99">
+        <v>-0.01772681961926516</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.02089709459251888</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.03935836999722796</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.1054607310283125</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.03493286763416492</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.0459759732196694</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.07138590867040687</v>
+      </c>
+      <c r="H100">
+        <v>0.00953835832116301</v>
+      </c>
+      <c r="I100">
+        <v>0.07589805564506796</v>
+      </c>
+      <c r="J100">
+        <v>-0.02217629349244245</v>
+      </c>
+      <c r="K100">
+        <v>0.2249531410982612</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05808558570751801</v>
+        <v>0.04015203715675417</v>
       </c>
       <c r="C101">
-        <v>0.008224598566754926</v>
+        <v>-0.01839827511216699</v>
       </c>
       <c r="D101">
-        <v>-0.0266859133381619</v>
+        <v>-0.003995709528325231</v>
       </c>
       <c r="E101">
-        <v>0.04328930260159695</v>
+        <v>-0.03016928176482501</v>
       </c>
       <c r="F101">
-        <v>-0.03787741617225555</v>
+        <v>-0.004852536799868976</v>
       </c>
       <c r="G101">
-        <v>0.03937383720711463</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.09219999990996418</v>
+      </c>
+      <c r="H101">
+        <v>-0.04041692385240343</v>
+      </c>
+      <c r="I101">
+        <v>0.01384663109318381</v>
+      </c>
+      <c r="J101">
+        <v>-0.05481120226588929</v>
+      </c>
+      <c r="K101">
+        <v>0.04661130289158387</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
